--- a/doc/Sprints/Backlog 3.xlsx
+++ b/doc/Sprints/Backlog 3.xlsx
@@ -1162,14 +1162,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
